--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Sinnakhali/Draft_Drawing/Geotube Filling Calcualtion.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Sinnakhali/Draft_Drawing/Geotube Filling Calcualtion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -191,7 +191,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -368,7 +368,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,16 +382,16 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -427,24 +427,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>260</v>
       </c>
       <c r="F2" s="1">
-        <f>D22*C2</f>
+        <f>$D$22*C2</f>
         <v>218.4</v>
       </c>
       <c r="G2" s="1">
@@ -504,72 +504,141 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1">
+        <f>C3^2</f>
+        <v>7744</v>
+      </c>
+      <c r="E3" s="1">
+        <f>$D$20*C3</f>
+        <v>220</v>
+      </c>
+      <c r="F3" s="1">
+        <f>$D$22*C3</f>
+        <v>184.8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>67226.209799999997</v>
+      </c>
+      <c r="H3" s="1">
+        <f>G3/D3</f>
+        <v>8.6810704803719005</v>
+      </c>
+      <c r="I3" s="1">
+        <f>F3/2</f>
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C4" s="1">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1">
+        <f>C4^2</f>
+        <v>5041</v>
+      </c>
+      <c r="E4" s="1">
+        <f>$D$20*C4</f>
+        <v>177.5</v>
+      </c>
+      <c r="F4" s="1">
+        <f>$D$22*C4</f>
+        <v>149.1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>197070.7261</v>
+      </c>
+      <c r="H4" s="1">
+        <f>G4/D4</f>
+        <v>39.093577881372745</v>
+      </c>
+      <c r="I4" s="1">
+        <f>F4/2</f>
+        <v>74.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <f>J8/71</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <f>-3.55-0.65</f>
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
